--- a/Machine Learning for Josh Dev's End-to-End Data Portfolio.xlsx
+++ b/Machine Learning for Josh Dev's End-to-End Data Portfolio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy Lauguico\Documents\04-personal-branding\Talks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandy Lauguico\Documents\01-learn-in-public\product\r-linear-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB47EF79-64E0-4245-A426-4EB577C6622C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844A45C-399C-4549-B7DA-76CA29A1B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{06EE85D0-79E0-4C85-BDA9-B6537CCBBDD5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06EE85D0-79E0-4C85-BDA9-B6537CCBBDD5}"/>
   </bookViews>
   <sheets>
     <sheet name="What is Machine Learning" sheetId="1" r:id="rId1"/>
@@ -581,18 +581,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -611,7 +600,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,50 +1745,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2350735</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>111346</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A012B23D-7BDB-9C1A-A064-F92A5A9A6DBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9578976" y="4600574"/>
-          <a:ext cx="3642959" cy="3140297"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1819,7 +1775,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1852,7 +1808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1913,7 +1869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1943,6 +1899,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2337289</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D89BC7-A92E-7B2F-D8A1-23C4241DBA96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9583615" y="4715363"/>
+          <a:ext cx="3626828" cy="2576070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2335,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ABF26F-C6E8-4827-BF65-41F0D0CD8A51}">
   <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2366,29 +2366,29 @@
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="G2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="J2" s="31" t="s">
+      <c r="H2" s="39"/>
+      <c r="J2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="K2" s="38"/>
+      <c r="M2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
     </row>
     <row r="3" spans="1:21" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -2409,18 +2409,18 @@
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="K3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -2464,18 +2464,18 @@
         <f t="shared" ref="H5:H16" si="0">IF(G5 &gt;= $D$8, $E$8, IF(AND(G5 &lt; $D$8, G5 &gt;= $D$7), $E$7, IF(AND(G5 &lt; $D$7, G5 &gt;= $D$6), $E$6, IF(AND(G5 &lt; $D$6, G5 &gt;= $D$5), $E$5, IF(AND(G5 &lt; $D$5, G5 &gt;= $D$4), $E$4, "Upskill ka muna")))))</f>
         <v>40000</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="N5" s="38" t="s">
+      <c r="K5" s="41"/>
+      <c r="N5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="40"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="37"/>
       <c r="T5" s="19"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -2495,14 +2495,14 @@
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
       <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -2522,18 +2522,18 @@
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="N7" s="37" t="s">
+      <c r="K7" s="39"/>
+      <c r="N7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
       <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -2559,14 +2559,14 @@
       <c r="K8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -2583,14 +2583,14 @@
       <c r="K9" s="14">
         <v>40000</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="37"/>
       <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -2607,14 +2607,14 @@
       <c r="K10" s="4">
         <v>60000</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="40"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37"/>
       <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -2646,14 +2646,14 @@
       <c r="K12" s="4">
         <v>100000</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="G13" s="4">
@@ -2793,10 +2793,10 @@
       </c>
     </row>
     <row r="22" spans="7:15" x14ac:dyDescent="0.35">
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="35"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.35">
       <c r="N23" t="s">
@@ -2871,10 +2871,10 @@
       </c>
     </row>
     <row r="39" spans="10:15" x14ac:dyDescent="0.35">
-      <c r="N39" s="36" t="s">
+      <c r="N39" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="O39" s="36"/>
+      <c r="O39" s="33"/>
     </row>
     <row r="40" spans="10:15" x14ac:dyDescent="0.35">
       <c r="N40" s="18" t="s">
@@ -3080,25 +3080,18 @@
       </c>
     </row>
     <row r="63" spans="10:20" x14ac:dyDescent="0.35">
-      <c r="N63" s="35" t="s">
+      <c r="N63" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N10:S10"/>
     <mergeCell ref="M2:T2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
@@ -3110,6 +3103,13 @@
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3120,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ADF1C6-AEB3-457E-A95A-E94BFD7EF894}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -6206,7 +6206,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="31" t="s">
         <v>72</v>
       </c>
     </row>
